--- a/compatibility_matrix.xlsx
+++ b/compatibility_matrix.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="989"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="47">
   <si>
     <t>MATRIX DEFINING THE COMPATIBILITY BETWEEN SECURITY CONFIGURATIONS</t>
   </si>
@@ -147,9 +147,6 @@
     <t>CDX Reader vs. RTI Writer</t>
   </si>
   <si>
-    <t>not supported by RTI or CDX. Currently, SIGN for metadata and data protection kinds have the same effect as ENCRYPT, which is to do gcm authenticated encryption.</t>
-  </si>
-  <si>
     <t>communication fails</t>
   </si>
   <si>
@@ -161,12 +158,15 @@
   <si>
     <t>OK</t>
   </si>
+  <si>
+    <t>not supported by RTI. Currently, SIGN for metadata and data protection kinds have the same effect as ENCRYPT, which is to do gcm authenticated encryption.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -367,1011 +367,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="208">
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-        <name val="Calibri"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="118">
     <dxf>
       <font>
         <color theme="6" tint="0.59996337778862885"/>
@@ -2828,7 +1838,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2863,7 +1872,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3039,29 +2047,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J280" sqref="J280"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.109375"/>
-    <col min="2" max="2" width="20.44140625"/>
-    <col min="3" max="3" width="20.88671875"/>
-    <col min="4" max="4" width="13.44140625"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="2.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" customWidth="1"/>
-    <col min="8" max="8" width="2.6640625" customWidth="1"/>
-    <col min="9" max="10" width="25.6640625"/>
-    <col min="11" max="28" width="7.6640625"/>
-    <col min="29" max="1025" width="15.33203125"/>
+    <col min="1" max="1" width="22.140625"/>
+    <col min="2" max="2" width="20.42578125"/>
+    <col min="3" max="3" width="20.85546875"/>
+    <col min="4" max="4" width="13.42578125"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" customWidth="1"/>
+    <col min="9" max="10" width="25.7109375"/>
+    <col min="11" max="28" width="7.7109375"/>
+    <col min="29" max="1025" width="15.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" ht="26.25" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3075,7 +2083,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3087,13 +2095,13 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -3101,15 +2109,15 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -3117,15 +2125,15 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -3133,15 +2141,15 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -3149,15 +2157,15 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -3165,7 +2173,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3177,7 +2185,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -3185,17 +2193,17 @@
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="24"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -3213,7 +2221,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -3231,7 +2239,7 @@
       <c r="I11" s="12"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
@@ -3249,7 +2257,7 @@
       <c r="I12" s="12"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
@@ -3267,7 +2275,7 @@
       <c r="I13" s="12"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
@@ -3285,7 +2293,7 @@
       <c r="I14" s="12"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
@@ -3299,7 +2307,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
@@ -3313,7 +2321,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10">
       <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
@@ -3327,7 +2335,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10">
       <c r="A18" s="4" t="s">
         <v>31</v>
       </c>
@@ -3341,7 +2349,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10">
       <c r="A19" s="4" t="s">
         <v>32</v>
       </c>
@@ -3355,7 +2363,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10">
       <c r="A20" s="4" t="s">
         <v>33</v>
       </c>
@@ -3369,7 +2377,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -3381,7 +2389,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" s="7" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="7" customFormat="1" ht="28.35" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>34</v>
       </c>
@@ -3394,14 +2402,14 @@
       <c r="D22" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27" t="s">
+      <c r="F22" s="21"/>
+      <c r="G22" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="27"/>
+      <c r="H22" s="21"/>
       <c r="I22" s="5" t="s">
         <v>40</v>
       </c>
@@ -3409,7 +2417,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10">
       <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
@@ -3423,17 +2431,17 @@
       <c r="E23" s="9"/>
       <c r="F23" s="19"/>
       <c r="G23" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="4" t="s">
         <v>13</v>
       </c>
@@ -3447,17 +2455,17 @@
       <c r="E24" s="9"/>
       <c r="F24" s="19"/>
       <c r="G24" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="4" t="s">
         <v>13</v>
       </c>
@@ -3471,17 +2479,17 @@
       <c r="E25" s="9"/>
       <c r="F25" s="19"/>
       <c r="G25" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="4" t="s">
         <v>13</v>
       </c>
@@ -3495,17 +2503,17 @@
       <c r="E26" s="9"/>
       <c r="F26" s="19"/>
       <c r="G26" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="4" t="s">
         <v>13</v>
       </c>
@@ -3519,17 +2527,17 @@
       <c r="E27" s="9"/>
       <c r="F27" s="19"/>
       <c r="G27" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="4" t="s">
         <v>13</v>
       </c>
@@ -3543,17 +2551,17 @@
       <c r="E28" s="11"/>
       <c r="F28" s="20"/>
       <c r="G28" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" s="20"/>
       <c r="I28" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="4" t="s">
         <v>13</v>
       </c>
@@ -3567,17 +2575,17 @@
       <c r="E29" s="11"/>
       <c r="F29" s="20"/>
       <c r="G29" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" s="20"/>
       <c r="I29" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="4" t="s">
         <v>13</v>
       </c>
@@ -3591,17 +2599,17 @@
       <c r="E30" s="11"/>
       <c r="F30" s="20"/>
       <c r="G30" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" s="20"/>
       <c r="I30" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="4" t="s">
         <v>13</v>
       </c>
@@ -3615,17 +2623,17 @@
       <c r="E31" s="11"/>
       <c r="F31" s="20"/>
       <c r="G31" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" s="20"/>
       <c r="I31" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="4" t="s">
         <v>13</v>
       </c>
@@ -3639,17 +2647,17 @@
       <c r="E32" s="11"/>
       <c r="F32" s="20"/>
       <c r="G32" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" s="20"/>
       <c r="I32" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="4" t="s">
         <v>13</v>
       </c>
@@ -3663,17 +2671,17 @@
       <c r="E33" s="9"/>
       <c r="F33" s="19"/>
       <c r="G33" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="4" t="s">
         <v>13</v>
       </c>
@@ -3687,17 +2695,17 @@
       <c r="E34" s="9"/>
       <c r="F34" s="19"/>
       <c r="G34" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="4" t="s">
         <v>13</v>
       </c>
@@ -3711,17 +2719,17 @@
       <c r="E35" s="9"/>
       <c r="F35" s="19"/>
       <c r="G35" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="4" t="s">
         <v>13</v>
       </c>
@@ -3735,17 +2743,17 @@
       <c r="E36" s="9"/>
       <c r="F36" s="19"/>
       <c r="G36" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="4" t="s">
         <v>13</v>
       </c>
@@ -3759,17 +2767,17 @@
       <c r="E37" s="9"/>
       <c r="F37" s="19"/>
       <c r="G37" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="4" t="s">
         <v>13</v>
       </c>
@@ -3783,17 +2791,17 @@
       <c r="E38" s="11"/>
       <c r="F38" s="20"/>
       <c r="G38" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" s="20"/>
       <c r="I38" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="4" t="s">
         <v>13</v>
       </c>
@@ -3807,17 +2815,17 @@
       <c r="E39" s="11"/>
       <c r="F39" s="20"/>
       <c r="G39" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" s="20"/>
       <c r="I39" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J39" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="4" t="s">
         <v>13</v>
       </c>
@@ -3831,17 +2839,17 @@
       <c r="E40" s="11"/>
       <c r="F40" s="20"/>
       <c r="G40" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" s="20"/>
       <c r="I40" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J40" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="4" t="s">
         <v>13</v>
       </c>
@@ -3855,17 +2863,17 @@
       <c r="E41" s="11"/>
       <c r="F41" s="20"/>
       <c r="G41" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" s="20"/>
       <c r="I41" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="4" t="s">
         <v>13</v>
       </c>
@@ -3879,17 +2887,17 @@
       <c r="E42" s="11"/>
       <c r="F42" s="20"/>
       <c r="G42" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" s="20"/>
       <c r="I42" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J42" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="4" t="s">
         <v>13</v>
       </c>
@@ -3903,17 +2911,17 @@
       <c r="E43" s="11"/>
       <c r="F43" s="20"/>
       <c r="G43" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" s="20"/>
       <c r="I43" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J43" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="4" t="s">
         <v>13</v>
       </c>
@@ -3927,17 +2935,17 @@
       <c r="E44" s="11"/>
       <c r="F44" s="20"/>
       <c r="G44" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" s="20"/>
       <c r="I44" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J44" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="4" t="s">
         <v>13</v>
       </c>
@@ -3951,17 +2959,17 @@
       <c r="E45" s="11"/>
       <c r="F45" s="20"/>
       <c r="G45" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" s="20"/>
       <c r="I45" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J45" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="4" t="s">
         <v>13</v>
       </c>
@@ -3975,17 +2983,17 @@
       <c r="E46" s="11"/>
       <c r="F46" s="20"/>
       <c r="G46" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" s="20"/>
       <c r="I46" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J46" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="4" t="s">
         <v>13</v>
       </c>
@@ -3999,17 +3007,17 @@
       <c r="E47" s="11"/>
       <c r="F47" s="20"/>
       <c r="G47" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47" s="20"/>
       <c r="I47" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J47" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="4" t="s">
         <v>16</v>
       </c>
@@ -4023,17 +3031,17 @@
       <c r="E48" s="9"/>
       <c r="F48" s="19"/>
       <c r="G48" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J48" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="4" t="s">
         <v>16</v>
       </c>
@@ -4047,17 +3055,17 @@
       <c r="E49" s="9"/>
       <c r="F49" s="19"/>
       <c r="G49" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J49" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="4" t="s">
         <v>16</v>
       </c>
@@ -4071,17 +3079,17 @@
       <c r="E50" s="11"/>
       <c r="F50" s="20"/>
       <c r="G50" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H50" s="20"/>
       <c r="I50" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J50" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="4" t="s">
         <v>16</v>
       </c>
@@ -4095,17 +3103,17 @@
       <c r="E51" s="11"/>
       <c r="F51" s="20"/>
       <c r="G51" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51" s="20"/>
       <c r="I51" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J51" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="4" t="s">
         <v>16</v>
       </c>
@@ -4119,17 +3127,17 @@
       <c r="E52" s="11"/>
       <c r="F52" s="20"/>
       <c r="G52" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H52" s="20"/>
       <c r="I52" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J52" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="4" t="s">
         <v>16</v>
       </c>
@@ -4143,13 +3151,17 @@
       <c r="E53" s="9"/>
       <c r="F53" s="19"/>
       <c r="G53" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H53" s="19"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I53" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J53" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="4" t="s">
         <v>16</v>
       </c>
@@ -4163,13 +3175,17 @@
       <c r="E54" s="9"/>
       <c r="F54" s="19"/>
       <c r="G54" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H54" s="19"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I54" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J54" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="4" t="s">
         <v>16</v>
       </c>
@@ -4183,13 +3199,17 @@
       <c r="E55" s="11"/>
       <c r="F55" s="20"/>
       <c r="G55" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H55" s="20"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I55" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J55" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="4" t="s">
         <v>16</v>
       </c>
@@ -4203,13 +3223,17 @@
       <c r="E56" s="11"/>
       <c r="F56" s="20"/>
       <c r="G56" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H56" s="20"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I56" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J56" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="4" t="s">
         <v>16</v>
       </c>
@@ -4223,13 +3247,17 @@
       <c r="E57" s="11"/>
       <c r="F57" s="20"/>
       <c r="G57" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H57" s="20"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I57" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J57" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="4" t="s">
         <v>16</v>
       </c>
@@ -4243,13 +3271,17 @@
       <c r="E58" s="9"/>
       <c r="F58" s="19"/>
       <c r="G58" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H58" s="19"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I58" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J58" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="4" t="s">
         <v>16</v>
       </c>
@@ -4263,13 +3295,17 @@
       <c r="E59" s="9"/>
       <c r="F59" s="19"/>
       <c r="G59" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H59" s="19"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I59" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J59" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="4" t="s">
         <v>16</v>
       </c>
@@ -4283,13 +3319,17 @@
       <c r="E60" s="11"/>
       <c r="F60" s="20"/>
       <c r="G60" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H60" s="20"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I60" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J60" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="4" t="s">
         <v>16</v>
       </c>
@@ -4303,13 +3343,17 @@
       <c r="E61" s="11"/>
       <c r="F61" s="20"/>
       <c r="G61" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H61" s="20"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I61" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J61" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="4" t="s">
         <v>16</v>
       </c>
@@ -4323,13 +3367,17 @@
       <c r="E62" s="11"/>
       <c r="F62" s="20"/>
       <c r="G62" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H62" s="20"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I62" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J62" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="4" t="s">
         <v>16</v>
       </c>
@@ -4343,13 +3391,17 @@
       <c r="E63" s="9"/>
       <c r="F63" s="19"/>
       <c r="G63" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H63" s="19"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I63" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J63" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="4" t="s">
         <v>16</v>
       </c>
@@ -4363,13 +3415,17 @@
       <c r="E64" s="9"/>
       <c r="F64" s="19"/>
       <c r="G64" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H64" s="19"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I64" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J64" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="4" t="s">
         <v>16</v>
       </c>
@@ -4383,13 +3439,17 @@
       <c r="E65" s="11"/>
       <c r="F65" s="20"/>
       <c r="G65" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H65" s="20"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I65" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J65" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="4" t="s">
         <v>16</v>
       </c>
@@ -4403,13 +3463,17 @@
       <c r="E66" s="11"/>
       <c r="F66" s="20"/>
       <c r="G66" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H66" s="20"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I66" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J66" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="4" t="s">
         <v>16</v>
       </c>
@@ -4423,13 +3487,17 @@
       <c r="E67" s="11"/>
       <c r="F67" s="20"/>
       <c r="G67" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H67" s="20"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I67" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J67" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="4" t="s">
         <v>16</v>
       </c>
@@ -4443,13 +3511,17 @@
       <c r="E68" s="9"/>
       <c r="F68" s="19"/>
       <c r="G68" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H68" s="19"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I68" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J68" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="4" t="s">
         <v>16</v>
       </c>
@@ -4463,13 +3535,17 @@
       <c r="E69" s="9"/>
       <c r="F69" s="19"/>
       <c r="G69" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H69" s="19"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I69" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J69" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="4" t="s">
         <v>16</v>
       </c>
@@ -4483,13 +3559,17 @@
       <c r="E70" s="11"/>
       <c r="F70" s="20"/>
       <c r="G70" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H70" s="20"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I70" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J70" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="4" t="s">
         <v>16</v>
       </c>
@@ -4503,13 +3583,17 @@
       <c r="E71" s="11"/>
       <c r="F71" s="20"/>
       <c r="G71" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H71" s="20"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I71" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J71" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="4" t="s">
         <v>16</v>
       </c>
@@ -4523,13 +3607,17 @@
       <c r="E72" s="11"/>
       <c r="F72" s="20"/>
       <c r="G72" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H72" s="20"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I72" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J72" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="4" t="s">
         <v>19</v>
       </c>
@@ -4543,13 +3631,17 @@
       <c r="E73" s="9"/>
       <c r="F73" s="19"/>
       <c r="G73" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H73" s="19"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I73" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J73" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="4" t="s">
         <v>19</v>
       </c>
@@ -4563,13 +3655,17 @@
       <c r="E74" s="9"/>
       <c r="F74" s="19"/>
       <c r="G74" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H74" s="19"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I74" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J74" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="4" t="s">
         <v>19</v>
       </c>
@@ -4583,13 +3679,17 @@
       <c r="E75" s="9"/>
       <c r="F75" s="19"/>
       <c r="G75" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H75" s="19"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I75" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J75" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="4" t="s">
         <v>19</v>
       </c>
@@ -4603,13 +3703,17 @@
       <c r="E76" s="9"/>
       <c r="F76" s="19"/>
       <c r="G76" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H76" s="19"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I76" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J76" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="4" t="s">
         <v>19</v>
       </c>
@@ -4623,13 +3727,17 @@
       <c r="E77" s="9"/>
       <c r="F77" s="19"/>
       <c r="G77" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H77" s="19"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I77" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J77" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="4" t="s">
         <v>19</v>
       </c>
@@ -4643,13 +3751,17 @@
       <c r="E78" s="9"/>
       <c r="F78" s="19"/>
       <c r="G78" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H78" s="19"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I78" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J78" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="4" t="s">
         <v>19</v>
       </c>
@@ -4663,13 +3775,17 @@
       <c r="E79" s="9"/>
       <c r="F79" s="19"/>
       <c r="G79" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H79" s="19"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I79" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J79" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="4" t="s">
         <v>19</v>
       </c>
@@ -4683,13 +3799,17 @@
       <c r="E80" s="11"/>
       <c r="F80" s="20"/>
       <c r="G80" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H80" s="20"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I80" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J80" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="4" t="s">
         <v>19</v>
       </c>
@@ -4703,13 +3823,17 @@
       <c r="E81" s="11"/>
       <c r="F81" s="20"/>
       <c r="G81" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H81" s="20"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I81" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J81" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="4" t="s">
         <v>19</v>
       </c>
@@ -4723,13 +3847,17 @@
       <c r="E82" s="11"/>
       <c r="F82" s="20"/>
       <c r="G82" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H82" s="20"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I82" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J82" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="4" t="s">
         <v>19</v>
       </c>
@@ -4743,13 +3871,17 @@
       <c r="E83" s="9"/>
       <c r="F83" s="19"/>
       <c r="G83" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H83" s="19"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I83" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J83" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="4" t="s">
         <v>19</v>
       </c>
@@ -4763,13 +3895,17 @@
       <c r="E84" s="9"/>
       <c r="F84" s="19"/>
       <c r="G84" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H84" s="19"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I84" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J84" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="4" t="s">
         <v>19</v>
       </c>
@@ -4783,13 +3919,17 @@
       <c r="E85" s="9"/>
       <c r="F85" s="19"/>
       <c r="G85" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H85" s="19"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I85" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J85" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="4" t="s">
         <v>19</v>
       </c>
@@ -4803,13 +3943,17 @@
       <c r="E86" s="9"/>
       <c r="F86" s="19"/>
       <c r="G86" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H86" s="19"/>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I86" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J86" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="4" t="s">
         <v>19</v>
       </c>
@@ -4823,13 +3967,17 @@
       <c r="E87" s="9"/>
       <c r="F87" s="19"/>
       <c r="G87" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H87" s="19"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I87" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J87" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="4" t="s">
         <v>19</v>
       </c>
@@ -4843,13 +3991,17 @@
       <c r="E88" s="9"/>
       <c r="F88" s="19"/>
       <c r="G88" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H88" s="19"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I88" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J88" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="4" t="s">
         <v>19</v>
       </c>
@@ -4863,13 +4015,17 @@
       <c r="E89" s="9"/>
       <c r="F89" s="19"/>
       <c r="G89" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H89" s="19"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I89" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J89" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="4" t="s">
         <v>19</v>
       </c>
@@ -4883,13 +4039,17 @@
       <c r="E90" s="11"/>
       <c r="F90" s="20"/>
       <c r="G90" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H90" s="20"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I90" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J90" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="4" t="s">
         <v>19</v>
       </c>
@@ -4903,13 +4063,17 @@
       <c r="E91" s="11"/>
       <c r="F91" s="20"/>
       <c r="G91" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H91" s="20"/>
-      <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I91" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J91" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="4" t="s">
         <v>19</v>
       </c>
@@ -4923,13 +4087,17 @@
       <c r="E92" s="11"/>
       <c r="F92" s="20"/>
       <c r="G92" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H92" s="20"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I92" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J92" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="4" t="s">
         <v>19</v>
       </c>
@@ -4943,13 +4111,17 @@
       <c r="E93" s="9"/>
       <c r="F93" s="19"/>
       <c r="G93" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H93" s="19"/>
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I93" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J93" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="4" t="s">
         <v>19</v>
       </c>
@@ -4963,13 +4135,17 @@
       <c r="E94" s="9"/>
       <c r="F94" s="19"/>
       <c r="G94" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H94" s="19"/>
-      <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I94" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J94" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="4" t="s">
         <v>19</v>
       </c>
@@ -4983,13 +4159,17 @@
       <c r="E95" s="11"/>
       <c r="F95" s="20"/>
       <c r="G95" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H95" s="20"/>
-      <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I95" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J95" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="4" t="s">
         <v>19</v>
       </c>
@@ -5003,13 +4183,17 @@
       <c r="E96" s="11"/>
       <c r="F96" s="20"/>
       <c r="G96" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H96" s="20"/>
-      <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I96" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J96" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="4" t="s">
         <v>19</v>
       </c>
@@ -5023,13 +4207,17 @@
       <c r="E97" s="11"/>
       <c r="F97" s="20"/>
       <c r="G97" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H97" s="20"/>
-      <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I97" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J97" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="12" t="s">
         <v>22</v>
       </c>
@@ -5043,13 +4231,17 @@
       <c r="E98" s="9"/>
       <c r="F98" s="13"/>
       <c r="G98" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H98" s="19"/>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I98" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J98" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="12" t="s">
         <v>22</v>
       </c>
@@ -5063,13 +4255,17 @@
       <c r="E99" s="9"/>
       <c r="F99" s="13"/>
       <c r="G99" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H99" s="19"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I99" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J99" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="12" t="s">
         <v>22</v>
       </c>
@@ -5083,13 +4279,17 @@
       <c r="E100" s="9"/>
       <c r="F100" s="13"/>
       <c r="G100" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H100" s="19"/>
-      <c r="I100" s="4"/>
-      <c r="J100" s="4"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I100" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J100" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="12" t="s">
         <v>22</v>
       </c>
@@ -5103,13 +4303,17 @@
       <c r="E101" s="9"/>
       <c r="F101" s="13"/>
       <c r="G101" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H101" s="19"/>
-      <c r="I101" s="4"/>
-      <c r="J101" s="4"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I101" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J101" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="12" t="s">
         <v>22</v>
       </c>
@@ -5123,13 +4327,17 @@
       <c r="E102" s="9"/>
       <c r="F102" s="13"/>
       <c r="G102" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H102" s="19"/>
-      <c r="I102" s="4"/>
-      <c r="J102" s="4"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I102" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J102" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="12" t="s">
         <v>22</v>
       </c>
@@ -5143,13 +4351,17 @@
       <c r="E103" s="9"/>
       <c r="F103" s="13"/>
       <c r="G103" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H103" s="19"/>
-      <c r="I103" s="4"/>
-      <c r="J103" s="4"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I103" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J103" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="12" t="s">
         <v>22</v>
       </c>
@@ -5163,13 +4375,17 @@
       <c r="E104" s="9"/>
       <c r="F104" s="13"/>
       <c r="G104" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H104" s="19"/>
-      <c r="I104" s="4"/>
-      <c r="J104" s="4"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I104" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J104" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="12" t="s">
         <v>22</v>
       </c>
@@ -5183,13 +4399,17 @@
       <c r="E105" s="11"/>
       <c r="F105" s="14"/>
       <c r="G105" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H105" s="20"/>
-      <c r="I105" s="4"/>
-      <c r="J105" s="4"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I105" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J105" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="12" t="s">
         <v>22</v>
       </c>
@@ -5203,13 +4423,17 @@
       <c r="E106" s="11"/>
       <c r="F106" s="14"/>
       <c r="G106" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H106" s="20"/>
-      <c r="I106" s="4"/>
-      <c r="J106" s="4"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I106" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J106" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="12" t="s">
         <v>22</v>
       </c>
@@ -5223,13 +4447,17 @@
       <c r="E107" s="11"/>
       <c r="F107" s="14"/>
       <c r="G107" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H107" s="20"/>
-      <c r="I107" s="4"/>
-      <c r="J107" s="4"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I107" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J107" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="12" t="s">
         <v>22</v>
       </c>
@@ -5243,13 +4471,17 @@
       <c r="E108" s="9"/>
       <c r="F108" s="13"/>
       <c r="G108" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H108" s="19"/>
-      <c r="I108" s="4"/>
-      <c r="J108" s="4"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I108" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J108" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="12" t="s">
         <v>22</v>
       </c>
@@ -5263,13 +4495,17 @@
       <c r="E109" s="9"/>
       <c r="F109" s="13"/>
       <c r="G109" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H109" s="19"/>
-      <c r="I109" s="4"/>
-      <c r="J109" s="4"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I109" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J109" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="12" t="s">
         <v>22</v>
       </c>
@@ -5283,13 +4519,17 @@
       <c r="E110" s="9"/>
       <c r="F110" s="13"/>
       <c r="G110" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H110" s="19"/>
-      <c r="I110" s="4"/>
-      <c r="J110" s="4"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I110" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J110" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="12" t="s">
         <v>22</v>
       </c>
@@ -5303,13 +4543,17 @@
       <c r="E111" s="9"/>
       <c r="F111" s="13"/>
       <c r="G111" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H111" s="19"/>
-      <c r="I111" s="4"/>
-      <c r="J111" s="4"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I111" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J111" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="12" t="s">
         <v>22</v>
       </c>
@@ -5323,13 +4567,17 @@
       <c r="E112" s="9"/>
       <c r="F112" s="13"/>
       <c r="G112" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H112" s="19"/>
-      <c r="I112" s="4"/>
-      <c r="J112" s="4"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I112" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J112" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="12" t="s">
         <v>22</v>
       </c>
@@ -5343,13 +4591,17 @@
       <c r="E113" s="9"/>
       <c r="F113" s="13"/>
       <c r="G113" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H113" s="19"/>
-      <c r="I113" s="4"/>
-      <c r="J113" s="4"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I113" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J113" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="12" t="s">
         <v>22</v>
       </c>
@@ -5363,13 +4615,17 @@
       <c r="E114" s="9"/>
       <c r="F114" s="13"/>
       <c r="G114" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H114" s="19"/>
-      <c r="I114" s="4"/>
-      <c r="J114" s="4"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I114" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J114" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="12" t="s">
         <v>22</v>
       </c>
@@ -5383,13 +4639,17 @@
       <c r="E115" s="11"/>
       <c r="F115" s="14"/>
       <c r="G115" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H115" s="20"/>
-      <c r="I115" s="4"/>
-      <c r="J115" s="4"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I115" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J115" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="12" t="s">
         <v>22</v>
       </c>
@@ -5403,13 +4663,17 @@
       <c r="E116" s="11"/>
       <c r="F116" s="14"/>
       <c r="G116" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H116" s="20"/>
-      <c r="I116" s="4"/>
-      <c r="J116" s="4"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I116" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J116" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="12" t="s">
         <v>22</v>
       </c>
@@ -5423,13 +4687,17 @@
       <c r="E117" s="11"/>
       <c r="F117" s="14"/>
       <c r="G117" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H117" s="20"/>
-      <c r="I117" s="4"/>
-      <c r="J117" s="4"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I117" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J117" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="12" t="s">
         <v>22</v>
       </c>
@@ -5443,13 +4711,17 @@
       <c r="E118" s="9"/>
       <c r="F118" s="13"/>
       <c r="G118" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H118" s="19"/>
-      <c r="I118" s="4"/>
-      <c r="J118" s="4"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I118" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J118" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="12" t="s">
         <v>22</v>
       </c>
@@ -5463,13 +4735,17 @@
       <c r="E119" s="9"/>
       <c r="F119" s="13"/>
       <c r="G119" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H119" s="19"/>
-      <c r="I119" s="4"/>
-      <c r="J119" s="4"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I119" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J119" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="12" t="s">
         <v>22</v>
       </c>
@@ -5483,13 +4759,17 @@
       <c r="E120" s="11"/>
       <c r="F120" s="14"/>
       <c r="G120" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H120" s="20"/>
-      <c r="I120" s="4"/>
-      <c r="J120" s="4"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I120" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J120" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="12" t="s">
         <v>22</v>
       </c>
@@ -5503,13 +4783,17 @@
       <c r="E121" s="11"/>
       <c r="F121" s="14"/>
       <c r="G121" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H121" s="20"/>
-      <c r="I121" s="4"/>
-      <c r="J121" s="4"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I121" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J121" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="12" t="s">
         <v>22</v>
       </c>
@@ -5523,13 +4807,17 @@
       <c r="E122" s="11"/>
       <c r="F122" s="14"/>
       <c r="G122" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H122" s="20"/>
-      <c r="I122" s="4"/>
-      <c r="J122" s="4"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I122" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J122" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="4" t="s">
         <v>25</v>
       </c>
@@ -5543,13 +4831,17 @@
       <c r="E123" s="9"/>
       <c r="F123" s="19"/>
       <c r="G123" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H123" s="19"/>
-      <c r="I123" s="4"/>
-      <c r="J123" s="4"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I123" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J123" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="4" t="s">
         <v>25</v>
       </c>
@@ -5563,13 +4855,17 @@
       <c r="E124" s="9"/>
       <c r="F124" s="19"/>
       <c r="G124" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H124" s="19"/>
-      <c r="I124" s="4"/>
-      <c r="J124" s="4"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I124" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J124" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="4" t="s">
         <v>25</v>
       </c>
@@ -5583,13 +4879,17 @@
       <c r="E125" s="9"/>
       <c r="F125" s="19"/>
       <c r="G125" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H125" s="19"/>
-      <c r="I125" s="4"/>
-      <c r="J125" s="4"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I125" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J125" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="4" t="s">
         <v>25</v>
       </c>
@@ -5603,13 +4903,17 @@
       <c r="E126" s="9"/>
       <c r="F126" s="19"/>
       <c r="G126" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H126" s="19"/>
-      <c r="I126" s="4"/>
-      <c r="J126" s="4"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I126" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J126" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="4" t="s">
         <v>25</v>
       </c>
@@ -5623,13 +4927,17 @@
       <c r="E127" s="9"/>
       <c r="F127" s="19"/>
       <c r="G127" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H127" s="19"/>
-      <c r="I127" s="4"/>
-      <c r="J127" s="4"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I127" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J127" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="4" t="s">
         <v>25</v>
       </c>
@@ -5643,13 +4951,17 @@
       <c r="E128" s="9"/>
       <c r="F128" s="19"/>
       <c r="G128" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H128" s="19"/>
-      <c r="I128" s="4"/>
-      <c r="J128" s="4"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I128" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J128" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="4" t="s">
         <v>25</v>
       </c>
@@ -5663,13 +4975,17 @@
       <c r="E129" s="9"/>
       <c r="F129" s="19"/>
       <c r="G129" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H129" s="19"/>
-      <c r="I129" s="4"/>
-      <c r="J129" s="4"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I129" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J129" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="4" t="s">
         <v>25</v>
       </c>
@@ -5683,13 +4999,17 @@
       <c r="E130" s="11"/>
       <c r="F130" s="20"/>
       <c r="G130" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H130" s="20"/>
-      <c r="I130" s="4"/>
-      <c r="J130" s="4"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I130" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J130" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="4" t="s">
         <v>25</v>
       </c>
@@ -5703,13 +5023,17 @@
       <c r="E131" s="11"/>
       <c r="F131" s="20"/>
       <c r="G131" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H131" s="20"/>
-      <c r="I131" s="4"/>
-      <c r="J131" s="4"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I131" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J131" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="4" t="s">
         <v>25</v>
       </c>
@@ -5723,13 +5047,17 @@
       <c r="E132" s="11"/>
       <c r="F132" s="20"/>
       <c r="G132" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H132" s="20"/>
-      <c r="I132" s="4"/>
-      <c r="J132" s="4"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I132" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J132" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="4" t="s">
         <v>25</v>
       </c>
@@ -5743,13 +5071,17 @@
       <c r="E133" s="9"/>
       <c r="F133" s="19"/>
       <c r="G133" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H133" s="19"/>
-      <c r="I133" s="4"/>
-      <c r="J133" s="4"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I133" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J133" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="4" t="s">
         <v>25</v>
       </c>
@@ -5763,13 +5095,17 @@
       <c r="E134" s="9"/>
       <c r="F134" s="19"/>
       <c r="G134" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H134" s="19"/>
-      <c r="I134" s="4"/>
-      <c r="J134" s="4"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I134" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J134" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="4" t="s">
         <v>25</v>
       </c>
@@ -5783,13 +5119,17 @@
       <c r="E135" s="9"/>
       <c r="F135" s="19"/>
       <c r="G135" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H135" s="19"/>
-      <c r="I135" s="4"/>
-      <c r="J135" s="4"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I135" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J135" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="4" t="s">
         <v>25</v>
       </c>
@@ -5803,13 +5143,17 @@
       <c r="E136" s="9"/>
       <c r="F136" s="19"/>
       <c r="G136" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H136" s="19"/>
-      <c r="I136" s="4"/>
-      <c r="J136" s="4"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I136" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J136" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="4" t="s">
         <v>25</v>
       </c>
@@ -5823,13 +5167,17 @@
       <c r="E137" s="9"/>
       <c r="F137" s="19"/>
       <c r="G137" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H137" s="19"/>
-      <c r="I137" s="4"/>
-      <c r="J137" s="4"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I137" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J137" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="4" t="s">
         <v>25</v>
       </c>
@@ -5843,13 +5191,17 @@
       <c r="E138" s="9"/>
       <c r="F138" s="19"/>
       <c r="G138" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H138" s="19"/>
-      <c r="I138" s="4"/>
-      <c r="J138" s="4"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I138" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J138" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="4" t="s">
         <v>25</v>
       </c>
@@ -5863,13 +5215,17 @@
       <c r="E139" s="9"/>
       <c r="F139" s="19"/>
       <c r="G139" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H139" s="19"/>
-      <c r="I139" s="4"/>
-      <c r="J139" s="4"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I139" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J139" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="4" t="s">
         <v>25</v>
       </c>
@@ -5883,13 +5239,17 @@
       <c r="E140" s="11"/>
       <c r="F140" s="20"/>
       <c r="G140" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H140" s="20"/>
-      <c r="I140" s="4"/>
-      <c r="J140" s="4"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I140" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J140" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="4" t="s">
         <v>25</v>
       </c>
@@ -5903,13 +5263,17 @@
       <c r="E141" s="11"/>
       <c r="F141" s="20"/>
       <c r="G141" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H141" s="20"/>
-      <c r="I141" s="4"/>
-      <c r="J141" s="4"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I141" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J141" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="4" t="s">
         <v>25</v>
       </c>
@@ -5923,13 +5287,17 @@
       <c r="E142" s="11"/>
       <c r="F142" s="20"/>
       <c r="G142" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H142" s="20"/>
-      <c r="I142" s="4"/>
-      <c r="J142" s="4"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I142" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J142" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="4" t="s">
         <v>25</v>
       </c>
@@ -5943,13 +5311,17 @@
       <c r="E143" s="9"/>
       <c r="F143" s="19"/>
       <c r="G143" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H143" s="19"/>
-      <c r="I143" s="4"/>
-      <c r="J143" s="4"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I143" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J143" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="4" t="s">
         <v>25</v>
       </c>
@@ -5963,13 +5335,17 @@
       <c r="E144" s="9"/>
       <c r="F144" s="19"/>
       <c r="G144" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H144" s="19"/>
-      <c r="I144" s="4"/>
-      <c r="J144" s="4"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I144" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J144" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="4" t="s">
         <v>25</v>
       </c>
@@ -5983,13 +5359,17 @@
       <c r="E145" s="11"/>
       <c r="F145" s="20"/>
       <c r="G145" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H145" s="20"/>
-      <c r="I145" s="4"/>
-      <c r="J145" s="4"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I145" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J145" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="4" t="s">
         <v>25</v>
       </c>
@@ -6003,13 +5383,17 @@
       <c r="E146" s="11"/>
       <c r="F146" s="20"/>
       <c r="G146" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H146" s="20"/>
-      <c r="I146" s="4"/>
-      <c r="J146" s="4"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I146" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J146" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="4" t="s">
         <v>25</v>
       </c>
@@ -6023,13 +5407,17 @@
       <c r="E147" s="11"/>
       <c r="F147" s="20"/>
       <c r="G147" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H147" s="20"/>
-      <c r="I147" s="4"/>
-      <c r="J147" s="4"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I147" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J147" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="12" t="s">
         <v>28</v>
       </c>
@@ -6043,13 +5431,17 @@
       <c r="E148" s="9"/>
       <c r="F148" s="13"/>
       <c r="G148" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H148" s="13"/>
-      <c r="I148" s="4"/>
-      <c r="J148" s="4"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H148" s="19"/>
+      <c r="I148" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J148" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="12" t="s">
         <v>28</v>
       </c>
@@ -6063,13 +5455,17 @@
       <c r="E149" s="9"/>
       <c r="F149" s="13"/>
       <c r="G149" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H149" s="13"/>
-      <c r="I149" s="4"/>
-      <c r="J149" s="4"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H149" s="19"/>
+      <c r="I149" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J149" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="12" t="s">
         <v>28</v>
       </c>
@@ -6083,13 +5479,17 @@
       <c r="E150" s="9"/>
       <c r="F150" s="13"/>
       <c r="G150" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H150" s="13"/>
-      <c r="I150" s="4"/>
-      <c r="J150" s="4"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H150" s="19"/>
+      <c r="I150" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J150" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="12" t="s">
         <v>28</v>
       </c>
@@ -6103,13 +5503,17 @@
       <c r="E151" s="9"/>
       <c r="F151" s="13"/>
       <c r="G151" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H151" s="13"/>
-      <c r="I151" s="4"/>
-      <c r="J151" s="4"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H151" s="19"/>
+      <c r="I151" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J151" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="12" t="s">
         <v>28</v>
       </c>
@@ -6123,13 +5527,17 @@
       <c r="E152" s="9"/>
       <c r="F152" s="13"/>
       <c r="G152" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H152" s="13"/>
-      <c r="I152" s="4"/>
-      <c r="J152" s="4"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H152" s="19"/>
+      <c r="I152" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J152" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="12" t="s">
         <v>28</v>
       </c>
@@ -6143,13 +5551,17 @@
       <c r="E153" s="9"/>
       <c r="F153" s="13"/>
       <c r="G153" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H153" s="13"/>
-      <c r="I153" s="4"/>
-      <c r="J153" s="4"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H153" s="19"/>
+      <c r="I153" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J153" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="12" t="s">
         <v>28</v>
       </c>
@@ -6163,13 +5575,17 @@
       <c r="E154" s="9"/>
       <c r="F154" s="13"/>
       <c r="G154" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H154" s="13"/>
-      <c r="I154" s="4"/>
-      <c r="J154" s="4"/>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H154" s="19"/>
+      <c r="I154" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J154" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="12" t="s">
         <v>28</v>
       </c>
@@ -6183,13 +5599,17 @@
       <c r="E155" s="11"/>
       <c r="F155" s="14"/>
       <c r="G155" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H155" s="14"/>
-      <c r="I155" s="4"/>
-      <c r="J155" s="4"/>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="H155" s="20"/>
+      <c r="I155" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J155" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="12" t="s">
         <v>28</v>
       </c>
@@ -6203,13 +5623,17 @@
       <c r="E156" s="11"/>
       <c r="F156" s="14"/>
       <c r="G156" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H156" s="14"/>
-      <c r="I156" s="4"/>
-      <c r="J156" s="4"/>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="H156" s="20"/>
+      <c r="I156" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J156" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="12" t="s">
         <v>28</v>
       </c>
@@ -6223,13 +5647,17 @@
       <c r="E157" s="11"/>
       <c r="F157" s="14"/>
       <c r="G157" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H157" s="14"/>
-      <c r="I157" s="4"/>
-      <c r="J157" s="4"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="H157" s="20"/>
+      <c r="I157" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J157" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="12" t="s">
         <v>28</v>
       </c>
@@ -6243,13 +5671,17 @@
       <c r="E158" s="9"/>
       <c r="F158" s="13"/>
       <c r="G158" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H158" s="13"/>
-      <c r="I158" s="4"/>
-      <c r="J158" s="4"/>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H158" s="19"/>
+      <c r="I158" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J158" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="12" t="s">
         <v>28</v>
       </c>
@@ -6263,13 +5695,17 @@
       <c r="E159" s="9"/>
       <c r="F159" s="13"/>
       <c r="G159" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H159" s="13"/>
-      <c r="I159" s="4"/>
-      <c r="J159" s="4"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H159" s="19"/>
+      <c r="I159" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J159" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="12" t="s">
         <v>28</v>
       </c>
@@ -6283,13 +5719,17 @@
       <c r="E160" s="9"/>
       <c r="F160" s="13"/>
       <c r="G160" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H160" s="13"/>
-      <c r="I160" s="4"/>
-      <c r="J160" s="4"/>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H160" s="19"/>
+      <c r="I160" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J160" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="12" t="s">
         <v>28</v>
       </c>
@@ -6303,13 +5743,17 @@
       <c r="E161" s="9"/>
       <c r="F161" s="13"/>
       <c r="G161" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H161" s="13"/>
-      <c r="I161" s="4"/>
-      <c r="J161" s="4"/>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H161" s="19"/>
+      <c r="I161" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J161" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="12" t="s">
         <v>28</v>
       </c>
@@ -6323,13 +5767,17 @@
       <c r="E162" s="9"/>
       <c r="F162" s="13"/>
       <c r="G162" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H162" s="13"/>
-      <c r="I162" s="4"/>
-      <c r="J162" s="4"/>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H162" s="19"/>
+      <c r="I162" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J162" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="12" t="s">
         <v>28</v>
       </c>
@@ -6343,13 +5791,17 @@
       <c r="E163" s="9"/>
       <c r="F163" s="13"/>
       <c r="G163" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H163" s="13"/>
-      <c r="I163" s="4"/>
-      <c r="J163" s="4"/>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H163" s="19"/>
+      <c r="I163" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J163" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="12" t="s">
         <v>28</v>
       </c>
@@ -6363,13 +5815,17 @@
       <c r="E164" s="9"/>
       <c r="F164" s="13"/>
       <c r="G164" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H164" s="13"/>
-      <c r="I164" s="4"/>
-      <c r="J164" s="4"/>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H164" s="19"/>
+      <c r="I164" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J164" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="12" t="s">
         <v>28</v>
       </c>
@@ -6383,13 +5839,17 @@
       <c r="E165" s="11"/>
       <c r="F165" s="14"/>
       <c r="G165" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H165" s="14"/>
-      <c r="I165" s="4"/>
-      <c r="J165" s="4"/>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="H165" s="20"/>
+      <c r="I165" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J165" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="12" t="s">
         <v>28</v>
       </c>
@@ -6403,13 +5863,17 @@
       <c r="E166" s="11"/>
       <c r="F166" s="14"/>
       <c r="G166" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H166" s="14"/>
-      <c r="I166" s="4"/>
-      <c r="J166" s="4"/>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="H166" s="20"/>
+      <c r="I166" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J166" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="12" t="s">
         <v>28</v>
       </c>
@@ -6423,13 +5887,17 @@
       <c r="E167" s="11"/>
       <c r="F167" s="14"/>
       <c r="G167" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H167" s="14"/>
-      <c r="I167" s="4"/>
-      <c r="J167" s="4"/>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="H167" s="20"/>
+      <c r="I167" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J167" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="12" t="s">
         <v>28</v>
       </c>
@@ -6443,13 +5911,17 @@
       <c r="E168" s="9"/>
       <c r="F168" s="13"/>
       <c r="G168" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H168" s="13"/>
-      <c r="I168" s="4"/>
-      <c r="J168" s="4"/>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H168" s="19"/>
+      <c r="I168" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J168" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="12" t="s">
         <v>28</v>
       </c>
@@ -6463,13 +5935,17 @@
       <c r="E169" s="9"/>
       <c r="F169" s="13"/>
       <c r="G169" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H169" s="13"/>
-      <c r="I169" s="4"/>
-      <c r="J169" s="4"/>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H169" s="19"/>
+      <c r="I169" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J169" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="12" t="s">
         <v>28</v>
       </c>
@@ -6483,13 +5959,17 @@
       <c r="E170" s="11"/>
       <c r="F170" s="14"/>
       <c r="G170" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H170" s="14"/>
-      <c r="I170" s="4"/>
-      <c r="J170" s="4"/>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="H170" s="20"/>
+      <c r="I170" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J170" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="12" t="s">
         <v>28</v>
       </c>
@@ -6503,13 +5983,17 @@
       <c r="E171" s="11"/>
       <c r="F171" s="14"/>
       <c r="G171" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H171" s="14"/>
-      <c r="I171" s="4"/>
-      <c r="J171" s="4"/>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="H171" s="20"/>
+      <c r="I171" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J171" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="12" t="s">
         <v>28</v>
       </c>
@@ -6523,13 +6007,17 @@
       <c r="E172" s="11"/>
       <c r="F172" s="14"/>
       <c r="G172" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H172" s="14"/>
-      <c r="I172" s="4"/>
-      <c r="J172" s="4"/>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="H172" s="20"/>
+      <c r="I172" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J172" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="12" t="s">
         <v>29</v>
       </c>
@@ -6543,13 +6031,17 @@
       <c r="E173" s="9"/>
       <c r="F173" s="13"/>
       <c r="G173" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H173" s="13"/>
-      <c r="I173" s="4"/>
-      <c r="J173" s="4"/>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H173" s="19"/>
+      <c r="I173" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J173" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="12" t="s">
         <v>29</v>
       </c>
@@ -6563,13 +6055,17 @@
       <c r="E174" s="9"/>
       <c r="F174" s="13"/>
       <c r="G174" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H174" s="13"/>
-      <c r="I174" s="4"/>
-      <c r="J174" s="4"/>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H174" s="19"/>
+      <c r="I174" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J174" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="12" t="s">
         <v>29</v>
       </c>
@@ -6583,13 +6079,17 @@
       <c r="E175" s="9"/>
       <c r="F175" s="13"/>
       <c r="G175" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H175" s="13"/>
-      <c r="I175" s="4"/>
-      <c r="J175" s="4"/>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H175" s="19"/>
+      <c r="I175" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J175" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="12" t="s">
         <v>29</v>
       </c>
@@ -6603,13 +6103,17 @@
       <c r="E176" s="9"/>
       <c r="F176" s="13"/>
       <c r="G176" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H176" s="13"/>
-      <c r="I176" s="4"/>
-      <c r="J176" s="4"/>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H176" s="19"/>
+      <c r="I176" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J176" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="12" t="s">
         <v>29</v>
       </c>
@@ -6623,13 +6127,17 @@
       <c r="E177" s="9"/>
       <c r="F177" s="13"/>
       <c r="G177" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H177" s="13"/>
-      <c r="I177" s="4"/>
-      <c r="J177" s="4"/>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H177" s="19"/>
+      <c r="I177" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J177" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="12" t="s">
         <v>29</v>
       </c>
@@ -6643,13 +6151,17 @@
       <c r="E178" s="9"/>
       <c r="F178" s="13"/>
       <c r="G178" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H178" s="13"/>
-      <c r="I178" s="4"/>
-      <c r="J178" s="4"/>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H178" s="19"/>
+      <c r="I178" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J178" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="12" t="s">
         <v>29</v>
       </c>
@@ -6663,13 +6175,17 @@
       <c r="E179" s="9"/>
       <c r="F179" s="13"/>
       <c r="G179" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H179" s="13"/>
-      <c r="I179" s="4"/>
-      <c r="J179" s="4"/>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H179" s="19"/>
+      <c r="I179" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J179" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="12" t="s">
         <v>29</v>
       </c>
@@ -6683,13 +6199,17 @@
       <c r="E180" s="11"/>
       <c r="F180" s="14"/>
       <c r="G180" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H180" s="14"/>
-      <c r="I180" s="4"/>
-      <c r="J180" s="4"/>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="H180" s="20"/>
+      <c r="I180" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J180" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="12" t="s">
         <v>29</v>
       </c>
@@ -6703,13 +6223,17 @@
       <c r="E181" s="11"/>
       <c r="F181" s="14"/>
       <c r="G181" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H181" s="14"/>
-      <c r="I181" s="4"/>
-      <c r="J181" s="4"/>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="H181" s="20"/>
+      <c r="I181" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J181" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="12" t="s">
         <v>29</v>
       </c>
@@ -6723,13 +6247,17 @@
       <c r="E182" s="11"/>
       <c r="F182" s="14"/>
       <c r="G182" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H182" s="14"/>
-      <c r="I182" s="4"/>
-      <c r="J182" s="4"/>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="H182" s="20"/>
+      <c r="I182" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J182" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="12" t="s">
         <v>29</v>
       </c>
@@ -6743,13 +6271,17 @@
       <c r="E183" s="9"/>
       <c r="F183" s="13"/>
       <c r="G183" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H183" s="13"/>
-      <c r="I183" s="4"/>
-      <c r="J183" s="4"/>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H183" s="19"/>
+      <c r="I183" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J183" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="12" t="s">
         <v>29</v>
       </c>
@@ -6763,13 +6295,17 @@
       <c r="E184" s="9"/>
       <c r="F184" s="13"/>
       <c r="G184" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H184" s="13"/>
-      <c r="I184" s="4"/>
-      <c r="J184" s="4"/>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H184" s="19"/>
+      <c r="I184" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J184" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="12" t="s">
         <v>29</v>
       </c>
@@ -6783,13 +6319,17 @@
       <c r="E185" s="9"/>
       <c r="F185" s="13"/>
       <c r="G185" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H185" s="13"/>
-      <c r="I185" s="4"/>
-      <c r="J185" s="4"/>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H185" s="19"/>
+      <c r="I185" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J185" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="12" t="s">
         <v>29</v>
       </c>
@@ -6803,13 +6343,17 @@
       <c r="E186" s="9"/>
       <c r="F186" s="13"/>
       <c r="G186" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H186" s="13"/>
-      <c r="I186" s="4"/>
-      <c r="J186" s="4"/>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H186" s="19"/>
+      <c r="I186" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J186" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="12" t="s">
         <v>29</v>
       </c>
@@ -6823,13 +6367,17 @@
       <c r="E187" s="9"/>
       <c r="F187" s="13"/>
       <c r="G187" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H187" s="13"/>
-      <c r="I187" s="4"/>
-      <c r="J187" s="4"/>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H187" s="19"/>
+      <c r="I187" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J187" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="12" t="s">
         <v>29</v>
       </c>
@@ -6843,13 +6391,17 @@
       <c r="E188" s="9"/>
       <c r="F188" s="13"/>
       <c r="G188" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H188" s="13"/>
-      <c r="I188" s="4"/>
-      <c r="J188" s="4"/>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H188" s="19"/>
+      <c r="I188" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J188" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="12" t="s">
         <v>29</v>
       </c>
@@ -6863,13 +6415,17 @@
       <c r="E189" s="9"/>
       <c r="F189" s="13"/>
       <c r="G189" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H189" s="13"/>
-      <c r="I189" s="4"/>
-      <c r="J189" s="4"/>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H189" s="19"/>
+      <c r="I189" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J189" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="12" t="s">
         <v>29</v>
       </c>
@@ -6883,13 +6439,17 @@
       <c r="E190" s="11"/>
       <c r="F190" s="14"/>
       <c r="G190" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H190" s="14"/>
-      <c r="I190" s="4"/>
-      <c r="J190" s="4"/>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="H190" s="20"/>
+      <c r="I190" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J190" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="12" t="s">
         <v>29</v>
       </c>
@@ -6903,13 +6463,17 @@
       <c r="E191" s="11"/>
       <c r="F191" s="14"/>
       <c r="G191" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H191" s="14"/>
-      <c r="I191" s="4"/>
-      <c r="J191" s="4"/>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="H191" s="20"/>
+      <c r="I191" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J191" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="12" t="s">
         <v>29</v>
       </c>
@@ -6923,13 +6487,17 @@
       <c r="E192" s="11"/>
       <c r="F192" s="14"/>
       <c r="G192" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H192" s="14"/>
-      <c r="I192" s="4"/>
-      <c r="J192" s="4"/>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="H192" s="20"/>
+      <c r="I192" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J192" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="12" t="s">
         <v>29</v>
       </c>
@@ -6943,13 +6511,17 @@
       <c r="E193" s="9"/>
       <c r="F193" s="13"/>
       <c r="G193" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H193" s="13"/>
-      <c r="I193" s="4"/>
-      <c r="J193" s="4"/>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H193" s="19"/>
+      <c r="I193" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J193" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="12" t="s">
         <v>29</v>
       </c>
@@ -6963,13 +6535,17 @@
       <c r="E194" s="9"/>
       <c r="F194" s="13"/>
       <c r="G194" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H194" s="13"/>
-      <c r="I194" s="4"/>
-      <c r="J194" s="4"/>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H194" s="19"/>
+      <c r="I194" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J194" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="12" t="s">
         <v>29</v>
       </c>
@@ -6983,13 +6559,17 @@
       <c r="E195" s="11"/>
       <c r="F195" s="14"/>
       <c r="G195" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H195" s="14"/>
-      <c r="I195" s="4"/>
-      <c r="J195" s="4"/>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="H195" s="20"/>
+      <c r="I195" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J195" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="12" t="s">
         <v>29</v>
       </c>
@@ -7003,13 +6583,17 @@
       <c r="E196" s="11"/>
       <c r="F196" s="14"/>
       <c r="G196" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H196" s="14"/>
-      <c r="I196" s="4"/>
-      <c r="J196" s="4"/>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="H196" s="20"/>
+      <c r="I196" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J196" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="12" t="s">
         <v>29</v>
       </c>
@@ -7023,13 +6607,17 @@
       <c r="E197" s="11"/>
       <c r="F197" s="14"/>
       <c r="G197" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H197" s="14"/>
-      <c r="I197" s="4"/>
-      <c r="J197" s="4"/>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="H197" s="20"/>
+      <c r="I197" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J197" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="12" t="s">
         <v>30</v>
       </c>
@@ -7043,13 +6631,17 @@
       <c r="E198" s="9"/>
       <c r="F198" s="13"/>
       <c r="G198" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H198" s="13"/>
-      <c r="I198" s="4"/>
-      <c r="J198" s="4"/>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H198" s="19"/>
+      <c r="I198" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J198" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="12" t="s">
         <v>30</v>
       </c>
@@ -7063,13 +6655,17 @@
       <c r="E199" s="9"/>
       <c r="F199" s="13"/>
       <c r="G199" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H199" s="13"/>
-      <c r="I199" s="4"/>
-      <c r="J199" s="4"/>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H199" s="19"/>
+      <c r="I199" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J199" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="12" t="s">
         <v>30</v>
       </c>
@@ -7083,13 +6679,17 @@
       <c r="E200" s="9"/>
       <c r="F200" s="13"/>
       <c r="G200" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H200" s="13"/>
-      <c r="I200" s="4"/>
-      <c r="J200" s="4"/>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H200" s="19"/>
+      <c r="I200" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J200" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="12" t="s">
         <v>30</v>
       </c>
@@ -7103,13 +6703,17 @@
       <c r="E201" s="9"/>
       <c r="F201" s="13"/>
       <c r="G201" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H201" s="13"/>
-      <c r="I201" s="4"/>
-      <c r="J201" s="4"/>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H201" s="19"/>
+      <c r="I201" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J201" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" s="12" t="s">
         <v>30</v>
       </c>
@@ -7123,13 +6727,17 @@
       <c r="E202" s="9"/>
       <c r="F202" s="13"/>
       <c r="G202" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H202" s="13"/>
-      <c r="I202" s="4"/>
-      <c r="J202" s="4"/>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H202" s="19"/>
+      <c r="I202" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J202" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" s="12" t="s">
         <v>30</v>
       </c>
@@ -7143,13 +6751,17 @@
       <c r="E203" s="9"/>
       <c r="F203" s="13"/>
       <c r="G203" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H203" s="13"/>
-      <c r="I203" s="4"/>
-      <c r="J203" s="4"/>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H203" s="19"/>
+      <c r="I203" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J203" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
       <c r="A204" s="12" t="s">
         <v>30</v>
       </c>
@@ -7163,13 +6775,17 @@
       <c r="E204" s="9"/>
       <c r="F204" s="13"/>
       <c r="G204" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H204" s="13"/>
-      <c r="I204" s="4"/>
-      <c r="J204" s="4"/>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H204" s="19"/>
+      <c r="I204" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J204" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
       <c r="A205" s="12" t="s">
         <v>30</v>
       </c>
@@ -7183,13 +6799,17 @@
       <c r="E205" s="11"/>
       <c r="F205" s="14"/>
       <c r="G205" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H205" s="14"/>
-      <c r="I205" s="4"/>
-      <c r="J205" s="4"/>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="H205" s="20"/>
+      <c r="I205" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J205" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
       <c r="A206" s="12" t="s">
         <v>30</v>
       </c>
@@ -7203,13 +6823,17 @@
       <c r="E206" s="11"/>
       <c r="F206" s="14"/>
       <c r="G206" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H206" s="14"/>
-      <c r="I206" s="4"/>
-      <c r="J206" s="4"/>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="H206" s="20"/>
+      <c r="I206" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J206" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
       <c r="A207" s="12" t="s">
         <v>30</v>
       </c>
@@ -7223,13 +6847,17 @@
       <c r="E207" s="11"/>
       <c r="F207" s="14"/>
       <c r="G207" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H207" s="14"/>
-      <c r="I207" s="4"/>
-      <c r="J207" s="4"/>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="H207" s="20"/>
+      <c r="I207" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J207" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
       <c r="A208" s="12" t="s">
         <v>30</v>
       </c>
@@ -7243,13 +6871,17 @@
       <c r="E208" s="9"/>
       <c r="F208" s="13"/>
       <c r="G208" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H208" s="13"/>
-      <c r="I208" s="4"/>
-      <c r="J208" s="4"/>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H208" s="19"/>
+      <c r="I208" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J208" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
       <c r="A209" s="12" t="s">
         <v>30</v>
       </c>
@@ -7263,13 +6895,17 @@
       <c r="E209" s="9"/>
       <c r="F209" s="13"/>
       <c r="G209" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H209" s="13"/>
-      <c r="I209" s="4"/>
-      <c r="J209" s="4"/>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H209" s="19"/>
+      <c r="I209" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J209" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
       <c r="A210" s="12" t="s">
         <v>30</v>
       </c>
@@ -7283,13 +6919,17 @@
       <c r="E210" s="9"/>
       <c r="F210" s="13"/>
       <c r="G210" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H210" s="13"/>
-      <c r="I210" s="4"/>
-      <c r="J210" s="4"/>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H210" s="19"/>
+      <c r="I210" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J210" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
       <c r="A211" s="12" t="s">
         <v>30</v>
       </c>
@@ -7303,13 +6943,17 @@
       <c r="E211" s="9"/>
       <c r="F211" s="13"/>
       <c r="G211" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H211" s="13"/>
-      <c r="I211" s="4"/>
-      <c r="J211" s="4"/>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H211" s="19"/>
+      <c r="I211" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J211" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
       <c r="A212" s="12" t="s">
         <v>30</v>
       </c>
@@ -7323,13 +6967,17 @@
       <c r="E212" s="9"/>
       <c r="F212" s="13"/>
       <c r="G212" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H212" s="13"/>
-      <c r="I212" s="4"/>
-      <c r="J212" s="4"/>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H212" s="19"/>
+      <c r="I212" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J212" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
       <c r="A213" s="12" t="s">
         <v>30</v>
       </c>
@@ -7343,13 +6991,17 @@
       <c r="E213" s="9"/>
       <c r="F213" s="13"/>
       <c r="G213" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H213" s="13"/>
-      <c r="I213" s="4"/>
-      <c r="J213" s="4"/>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H213" s="19"/>
+      <c r="I213" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J213" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
       <c r="A214" s="12" t="s">
         <v>30</v>
       </c>
@@ -7363,13 +7015,17 @@
       <c r="E214" s="9"/>
       <c r="F214" s="13"/>
       <c r="G214" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H214" s="13"/>
-      <c r="I214" s="4"/>
-      <c r="J214" s="4"/>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H214" s="19"/>
+      <c r="I214" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J214" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10">
       <c r="A215" s="12" t="s">
         <v>30</v>
       </c>
@@ -7383,13 +7039,17 @@
       <c r="E215" s="11"/>
       <c r="F215" s="14"/>
       <c r="G215" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H215" s="14"/>
-      <c r="I215" s="4"/>
-      <c r="J215" s="4"/>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="H215" s="20"/>
+      <c r="I215" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J215" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10">
       <c r="A216" s="12" t="s">
         <v>30</v>
       </c>
@@ -7403,13 +7063,17 @@
       <c r="E216" s="11"/>
       <c r="F216" s="14"/>
       <c r="G216" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H216" s="14"/>
-      <c r="I216" s="4"/>
-      <c r="J216" s="4"/>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="H216" s="20"/>
+      <c r="I216" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J216" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10">
       <c r="A217" s="12" t="s">
         <v>30</v>
       </c>
@@ -7423,13 +7087,17 @@
       <c r="E217" s="11"/>
       <c r="F217" s="14"/>
       <c r="G217" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H217" s="14"/>
-      <c r="I217" s="4"/>
-      <c r="J217" s="4"/>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="H217" s="20"/>
+      <c r="I217" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J217" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10">
       <c r="A218" s="12" t="s">
         <v>30</v>
       </c>
@@ -7443,13 +7111,17 @@
       <c r="E218" s="9"/>
       <c r="F218" s="13"/>
       <c r="G218" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H218" s="13"/>
-      <c r="I218" s="4"/>
-      <c r="J218" s="4"/>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H218" s="19"/>
+      <c r="I218" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J218" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10">
       <c r="A219" s="12" t="s">
         <v>30</v>
       </c>
@@ -7463,13 +7135,17 @@
       <c r="E219" s="9"/>
       <c r="F219" s="13"/>
       <c r="G219" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H219" s="13"/>
-      <c r="I219" s="4"/>
-      <c r="J219" s="4"/>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H219" s="19"/>
+      <c r="I219" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J219" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10">
       <c r="A220" s="12" t="s">
         <v>30</v>
       </c>
@@ -7483,13 +7159,17 @@
       <c r="E220" s="11"/>
       <c r="F220" s="14"/>
       <c r="G220" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H220" s="14"/>
-      <c r="I220" s="4"/>
-      <c r="J220" s="4"/>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="H220" s="20"/>
+      <c r="I220" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J220" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10">
       <c r="A221" s="12" t="s">
         <v>30</v>
       </c>
@@ -7503,13 +7183,17 @@
       <c r="E221" s="11"/>
       <c r="F221" s="14"/>
       <c r="G221" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H221" s="14"/>
-      <c r="I221" s="4"/>
-      <c r="J221" s="4"/>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="H221" s="20"/>
+      <c r="I221" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J221" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10">
       <c r="A222" s="12" t="s">
         <v>30</v>
       </c>
@@ -7523,13 +7207,17 @@
       <c r="E222" s="11"/>
       <c r="F222" s="14"/>
       <c r="G222" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H222" s="14"/>
-      <c r="I222" s="4"/>
-      <c r="J222" s="4"/>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="H222" s="20"/>
+      <c r="I222" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J222" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10">
       <c r="A223" s="4" t="s">
         <v>31</v>
       </c>
@@ -7543,15 +7231,17 @@
       <c r="E223" s="9"/>
       <c r="F223" s="19"/>
       <c r="G223" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H223" s="19"/>
-      <c r="I223" s="4"/>
+      <c r="I223" s="18" t="s">
+        <v>44</v>
+      </c>
       <c r="J223" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10">
       <c r="A224" s="4" t="s">
         <v>31</v>
       </c>
@@ -7565,15 +7255,17 @@
       <c r="E224" s="9"/>
       <c r="F224" s="19"/>
       <c r="G224" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H224" s="19"/>
-      <c r="I224" s="4"/>
+      <c r="I224" s="18" t="s">
+        <v>44</v>
+      </c>
       <c r="J224" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10">
       <c r="A225" s="4" t="s">
         <v>31</v>
       </c>
@@ -7587,15 +7279,17 @@
       <c r="E225" s="9"/>
       <c r="F225" s="19"/>
       <c r="G225" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H225" s="19"/>
-      <c r="I225" s="4"/>
+      <c r="I225" s="18" t="s">
+        <v>44</v>
+      </c>
       <c r="J225" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10">
       <c r="A226" s="4" t="s">
         <v>31</v>
       </c>
@@ -7609,15 +7303,17 @@
       <c r="E226" s="9"/>
       <c r="F226" s="19"/>
       <c r="G226" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H226" s="19"/>
-      <c r="I226" s="4"/>
+      <c r="I226" s="18" t="s">
+        <v>44</v>
+      </c>
       <c r="J226" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10">
       <c r="A227" s="4" t="s">
         <v>31</v>
       </c>
@@ -7631,15 +7327,17 @@
       <c r="E227" s="9"/>
       <c r="F227" s="19"/>
       <c r="G227" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H227" s="19"/>
-      <c r="I227" s="4"/>
+      <c r="I227" s="18" t="s">
+        <v>44</v>
+      </c>
       <c r="J227" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10">
       <c r="A228" s="4" t="s">
         <v>31</v>
       </c>
@@ -7653,13 +7351,17 @@
       <c r="E228" s="9"/>
       <c r="F228" s="19"/>
       <c r="G228" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H228" s="19"/>
-      <c r="I228" s="4"/>
-      <c r="J228" s="4"/>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I228" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J228" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10">
       <c r="A229" s="4" t="s">
         <v>31</v>
       </c>
@@ -7673,13 +7375,17 @@
       <c r="E229" s="9"/>
       <c r="F229" s="19"/>
       <c r="G229" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H229" s="19"/>
-      <c r="I229" s="4"/>
-      <c r="J229" s="4"/>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I229" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J229" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10">
       <c r="A230" s="4" t="s">
         <v>31</v>
       </c>
@@ -7693,17 +7399,17 @@
       <c r="E230" s="11"/>
       <c r="F230" s="20"/>
       <c r="G230" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H230" s="20"/>
       <c r="I230" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J230" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10">
       <c r="A231" s="4" t="s">
         <v>31</v>
       </c>
@@ -7717,13 +7423,17 @@
       <c r="E231" s="11"/>
       <c r="F231" s="20"/>
       <c r="G231" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H231" s="20"/>
-      <c r="I231" s="4"/>
-      <c r="J231" s="4"/>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I231" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J231" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10">
       <c r="A232" s="4" t="s">
         <v>31</v>
       </c>
@@ -7737,13 +7447,17 @@
       <c r="E232" s="11"/>
       <c r="F232" s="20"/>
       <c r="G232" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H232" s="20"/>
-      <c r="I232" s="4"/>
-      <c r="J232" s="4"/>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I232" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J232" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10">
       <c r="A233" s="4" t="s">
         <v>31</v>
       </c>
@@ -7757,13 +7471,17 @@
       <c r="E233" s="9"/>
       <c r="F233" s="19"/>
       <c r="G233" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H233" s="19"/>
-      <c r="I233" s="4"/>
-      <c r="J233" s="4"/>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I233" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J233" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10">
       <c r="A234" s="4" t="s">
         <v>31</v>
       </c>
@@ -7777,13 +7495,17 @@
       <c r="E234" s="9"/>
       <c r="F234" s="19"/>
       <c r="G234" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H234" s="19"/>
-      <c r="I234" s="4"/>
-      <c r="J234" s="4"/>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I234" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J234" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10">
       <c r="A235" s="4" t="s">
         <v>31</v>
       </c>
@@ -7797,13 +7519,17 @@
       <c r="E235" s="9"/>
       <c r="F235" s="19"/>
       <c r="G235" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H235" s="19"/>
-      <c r="I235" s="4"/>
-      <c r="J235" s="4"/>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I235" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J235" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10">
       <c r="A236" s="4" t="s">
         <v>31</v>
       </c>
@@ -7817,13 +7543,17 @@
       <c r="E236" s="9"/>
       <c r="F236" s="19"/>
       <c r="G236" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H236" s="19"/>
-      <c r="I236" s="4"/>
-      <c r="J236" s="4"/>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I236" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J236" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10">
       <c r="A237" s="4" t="s">
         <v>31</v>
       </c>
@@ -7837,13 +7567,17 @@
       <c r="E237" s="9"/>
       <c r="F237" s="19"/>
       <c r="G237" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H237" s="19"/>
-      <c r="I237" s="4"/>
-      <c r="J237" s="4"/>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I237" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J237" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10">
       <c r="A238" s="4" t="s">
         <v>31</v>
       </c>
@@ -7857,13 +7591,17 @@
       <c r="E238" s="9"/>
       <c r="F238" s="19"/>
       <c r="G238" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H238" s="19"/>
-      <c r="I238" s="4"/>
-      <c r="J238" s="4"/>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I238" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J238" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10">
       <c r="A239" s="4" t="s">
         <v>31</v>
       </c>
@@ -7877,13 +7615,17 @@
       <c r="E239" s="9"/>
       <c r="F239" s="19"/>
       <c r="G239" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H239" s="19"/>
-      <c r="I239" s="4"/>
-      <c r="J239" s="4"/>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I239" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J239" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10">
       <c r="A240" s="4" t="s">
         <v>31</v>
       </c>
@@ -7897,13 +7639,17 @@
       <c r="E240" s="11"/>
       <c r="F240" s="20"/>
       <c r="G240" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H240" s="20"/>
-      <c r="I240" s="4"/>
-      <c r="J240" s="4"/>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I240" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J240" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10">
       <c r="A241" s="4" t="s">
         <v>31</v>
       </c>
@@ -7917,13 +7663,17 @@
       <c r="E241" s="11"/>
       <c r="F241" s="20"/>
       <c r="G241" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H241" s="20"/>
-      <c r="I241" s="4"/>
-      <c r="J241" s="4"/>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I241" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J241" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10">
       <c r="A242" s="4" t="s">
         <v>31</v>
       </c>
@@ -7937,13 +7687,17 @@
       <c r="E242" s="11"/>
       <c r="F242" s="20"/>
       <c r="G242" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H242" s="20"/>
-      <c r="I242" s="4"/>
-      <c r="J242" s="4"/>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I242" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J242" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10">
       <c r="A243" s="4" t="s">
         <v>31</v>
       </c>
@@ -7957,13 +7711,17 @@
       <c r="E243" s="9"/>
       <c r="F243" s="19"/>
       <c r="G243" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H243" s="19"/>
-      <c r="I243" s="4"/>
-      <c r="J243" s="4"/>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I243" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J243" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10">
       <c r="A244" s="4" t="s">
         <v>31</v>
       </c>
@@ -7977,13 +7735,17 @@
       <c r="E244" s="9"/>
       <c r="F244" s="19"/>
       <c r="G244" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H244" s="19"/>
-      <c r="I244" s="4"/>
-      <c r="J244" s="4"/>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I244" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J244" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10">
       <c r="A245" s="4" t="s">
         <v>31</v>
       </c>
@@ -7997,13 +7759,17 @@
       <c r="E245" s="11"/>
       <c r="F245" s="20"/>
       <c r="G245" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H245" s="20"/>
-      <c r="I245" s="4"/>
-      <c r="J245" s="4"/>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I245" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J245" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10">
       <c r="A246" s="4" t="s">
         <v>31</v>
       </c>
@@ -8017,13 +7783,17 @@
       <c r="E246" s="11"/>
       <c r="F246" s="20"/>
       <c r="G246" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H246" s="20"/>
-      <c r="I246" s="4"/>
-      <c r="J246" s="4"/>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I246" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J246" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10">
       <c r="A247" s="4" t="s">
         <v>31</v>
       </c>
@@ -8037,13 +7807,17 @@
       <c r="E247" s="11"/>
       <c r="F247" s="20"/>
       <c r="G247" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H247" s="20"/>
-      <c r="I247" s="4"/>
-      <c r="J247" s="4"/>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I247" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J247" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10">
       <c r="A248" s="12" t="s">
         <v>32</v>
       </c>
@@ -8057,13 +7831,17 @@
       <c r="E248" s="9"/>
       <c r="F248" s="13"/>
       <c r="G248" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H248" s="19"/>
-      <c r="I248" s="4"/>
-      <c r="J248" s="4"/>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I248" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J248" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10">
       <c r="A249" s="12" t="s">
         <v>32</v>
       </c>
@@ -8077,13 +7855,17 @@
       <c r="E249" s="9"/>
       <c r="F249" s="13"/>
       <c r="G249" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H249" s="19"/>
-      <c r="I249" s="4"/>
-      <c r="J249" s="4"/>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I249" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J249" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10">
       <c r="A250" s="12" t="s">
         <v>32</v>
       </c>
@@ -8097,13 +7879,17 @@
       <c r="E250" s="9"/>
       <c r="F250" s="13"/>
       <c r="G250" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H250" s="19"/>
-      <c r="I250" s="4"/>
-      <c r="J250" s="4"/>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I250" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J250" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10">
       <c r="A251" s="12" t="s">
         <v>32</v>
       </c>
@@ -8117,13 +7903,17 @@
       <c r="E251" s="9"/>
       <c r="F251" s="13"/>
       <c r="G251" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H251" s="19"/>
-      <c r="I251" s="4"/>
-      <c r="J251" s="4"/>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I251" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J251" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10">
       <c r="A252" s="12" t="s">
         <v>32</v>
       </c>
@@ -8137,13 +7927,17 @@
       <c r="E252" s="9"/>
       <c r="F252" s="13"/>
       <c r="G252" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H252" s="19"/>
-      <c r="I252" s="4"/>
-      <c r="J252" s="4"/>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I252" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J252" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10">
       <c r="A253" s="12" t="s">
         <v>32</v>
       </c>
@@ -8157,13 +7951,17 @@
       <c r="E253" s="9"/>
       <c r="F253" s="13"/>
       <c r="G253" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H253" s="19"/>
-      <c r="I253" s="4"/>
-      <c r="J253" s="4"/>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I253" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J253" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10">
       <c r="A254" s="12" t="s">
         <v>32</v>
       </c>
@@ -8177,13 +7975,17 @@
       <c r="E254" s="9"/>
       <c r="F254" s="13"/>
       <c r="G254" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H254" s="19"/>
-      <c r="I254" s="4"/>
-      <c r="J254" s="4"/>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I254" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J254" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10">
       <c r="A255" s="12" t="s">
         <v>32</v>
       </c>
@@ -8197,13 +7999,17 @@
       <c r="E255" s="11"/>
       <c r="F255" s="14"/>
       <c r="G255" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H255" s="20"/>
-      <c r="I255" s="4"/>
-      <c r="J255" s="4"/>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I255" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J255" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10">
       <c r="A256" s="12" t="s">
         <v>32</v>
       </c>
@@ -8217,13 +8023,17 @@
       <c r="E256" s="11"/>
       <c r="F256" s="14"/>
       <c r="G256" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H256" s="20"/>
-      <c r="I256" s="4"/>
-      <c r="J256" s="4"/>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I256" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J256" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10">
       <c r="A257" s="12" t="s">
         <v>32</v>
       </c>
@@ -8237,13 +8047,17 @@
       <c r="E257" s="11"/>
       <c r="F257" s="14"/>
       <c r="G257" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H257" s="20"/>
-      <c r="I257" s="4"/>
-      <c r="J257" s="4"/>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I257" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J257" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10">
       <c r="A258" s="12" t="s">
         <v>32</v>
       </c>
@@ -8257,13 +8071,17 @@
       <c r="E258" s="9"/>
       <c r="F258" s="13"/>
       <c r="G258" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H258" s="19"/>
-      <c r="I258" s="4"/>
-      <c r="J258" s="4"/>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I258" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J258" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10">
       <c r="A259" s="12" t="s">
         <v>32</v>
       </c>
@@ -8277,13 +8095,17 @@
       <c r="E259" s="9"/>
       <c r="F259" s="13"/>
       <c r="G259" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H259" s="19"/>
-      <c r="I259" s="4"/>
-      <c r="J259" s="4"/>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I259" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J259" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10">
       <c r="A260" s="12" t="s">
         <v>32</v>
       </c>
@@ -8297,13 +8119,17 @@
       <c r="E260" s="9"/>
       <c r="F260" s="13"/>
       <c r="G260" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H260" s="19"/>
-      <c r="I260" s="4"/>
-      <c r="J260" s="4"/>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I260" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J260" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10">
       <c r="A261" s="12" t="s">
         <v>32</v>
       </c>
@@ -8317,13 +8143,17 @@
       <c r="E261" s="9"/>
       <c r="F261" s="13"/>
       <c r="G261" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H261" s="19"/>
-      <c r="I261" s="4"/>
-      <c r="J261" s="4"/>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I261" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J261" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10">
       <c r="A262" s="12" t="s">
         <v>32</v>
       </c>
@@ -8337,13 +8167,17 @@
       <c r="E262" s="9"/>
       <c r="F262" s="13"/>
       <c r="G262" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H262" s="19"/>
-      <c r="I262" s="4"/>
-      <c r="J262" s="4"/>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I262" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J262" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10">
       <c r="A263" s="12" t="s">
         <v>32</v>
       </c>
@@ -8357,13 +8191,17 @@
       <c r="E263" s="9"/>
       <c r="F263" s="13"/>
       <c r="G263" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H263" s="19"/>
-      <c r="I263" s="4"/>
-      <c r="J263" s="4"/>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I263" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J263" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10">
       <c r="A264" s="12" t="s">
         <v>32</v>
       </c>
@@ -8377,13 +8215,17 @@
       <c r="E264" s="9"/>
       <c r="F264" s="13"/>
       <c r="G264" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H264" s="19"/>
-      <c r="I264" s="4"/>
-      <c r="J264" s="4"/>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I264" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J264" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10">
       <c r="A265" s="12" t="s">
         <v>32</v>
       </c>
@@ -8397,13 +8239,17 @@
       <c r="E265" s="11"/>
       <c r="F265" s="14"/>
       <c r="G265" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H265" s="20"/>
-      <c r="I265" s="4"/>
-      <c r="J265" s="4"/>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I265" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J265" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10">
       <c r="A266" s="12" t="s">
         <v>32</v>
       </c>
@@ -8417,13 +8263,17 @@
       <c r="E266" s="11"/>
       <c r="F266" s="14"/>
       <c r="G266" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H266" s="20"/>
-      <c r="I266" s="4"/>
-      <c r="J266" s="4"/>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I266" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J266" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10">
       <c r="A267" s="12" t="s">
         <v>32</v>
       </c>
@@ -8437,13 +8287,17 @@
       <c r="E267" s="11"/>
       <c r="F267" s="14"/>
       <c r="G267" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H267" s="20"/>
-      <c r="I267" s="4"/>
-      <c r="J267" s="4"/>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I267" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J267" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10">
       <c r="A268" s="12" t="s">
         <v>32</v>
       </c>
@@ -8457,13 +8311,17 @@
       <c r="E268" s="9"/>
       <c r="F268" s="13"/>
       <c r="G268" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H268" s="19"/>
-      <c r="I268" s="4"/>
-      <c r="J268" s="4"/>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I268" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J268" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10">
       <c r="A269" s="12" t="s">
         <v>32</v>
       </c>
@@ -8477,13 +8335,17 @@
       <c r="E269" s="9"/>
       <c r="F269" s="13"/>
       <c r="G269" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H269" s="19"/>
-      <c r="I269" s="4"/>
-      <c r="J269" s="4"/>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I269" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J269" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10">
       <c r="A270" s="12" t="s">
         <v>32</v>
       </c>
@@ -8497,13 +8359,17 @@
       <c r="E270" s="11"/>
       <c r="F270" s="14"/>
       <c r="G270" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H270" s="20"/>
-      <c r="I270" s="4"/>
-      <c r="J270" s="4"/>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I270" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J270" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10">
       <c r="A271" s="12" t="s">
         <v>32</v>
       </c>
@@ -8517,13 +8383,17 @@
       <c r="E271" s="11"/>
       <c r="F271" s="14"/>
       <c r="G271" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H271" s="20"/>
-      <c r="I271" s="4"/>
-      <c r="J271" s="4"/>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I271" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J271" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10">
       <c r="A272" s="12" t="s">
         <v>32</v>
       </c>
@@ -8537,13 +8407,17 @@
       <c r="E272" s="11"/>
       <c r="F272" s="14"/>
       <c r="G272" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H272" s="20"/>
-      <c r="I272" s="4"/>
-      <c r="J272" s="4"/>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I272" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J272" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10">
       <c r="A273" s="4" t="s">
         <v>33</v>
       </c>
@@ -8557,13 +8431,17 @@
       <c r="E273" s="9"/>
       <c r="F273" s="19"/>
       <c r="G273" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H273" s="19"/>
-      <c r="I273" s="4"/>
-      <c r="J273" s="4"/>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I273" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J273" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10">
       <c r="A274" s="4" t="s">
         <v>33</v>
       </c>
@@ -8577,13 +8455,17 @@
       <c r="E274" s="9"/>
       <c r="F274" s="19"/>
       <c r="G274" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H274" s="19"/>
-      <c r="I274" s="4"/>
-      <c r="J274" s="4"/>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I274" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J274" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10">
       <c r="A275" s="4" t="s">
         <v>33</v>
       </c>
@@ -8597,13 +8479,17 @@
       <c r="E275" s="9"/>
       <c r="F275" s="19"/>
       <c r="G275" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H275" s="19"/>
-      <c r="I275" s="4"/>
-      <c r="J275" s="4"/>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I275" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J275" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10">
       <c r="A276" s="4" t="s">
         <v>33</v>
       </c>
@@ -8617,13 +8503,17 @@
       <c r="E276" s="9"/>
       <c r="F276" s="19"/>
       <c r="G276" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H276" s="19"/>
-      <c r="I276" s="4"/>
-      <c r="J276" s="4"/>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I276" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J276" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10">
       <c r="A277" s="4" t="s">
         <v>33</v>
       </c>
@@ -8637,13 +8527,17 @@
       <c r="E277" s="9"/>
       <c r="F277" s="19"/>
       <c r="G277" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H277" s="19"/>
-      <c r="I277" s="4"/>
-      <c r="J277" s="4"/>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I277" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J277" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10">
       <c r="A278" s="4" t="s">
         <v>33</v>
       </c>
@@ -8657,13 +8551,17 @@
       <c r="E278" s="9"/>
       <c r="F278" s="19"/>
       <c r="G278" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H278" s="19"/>
-      <c r="I278" s="4"/>
-      <c r="J278" s="4"/>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I278" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J278" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10">
       <c r="A279" s="4" t="s">
         <v>33</v>
       </c>
@@ -8677,13 +8575,17 @@
       <c r="E279" s="9"/>
       <c r="F279" s="19"/>
       <c r="G279" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H279" s="19"/>
-      <c r="I279" s="4"/>
-      <c r="J279" s="4"/>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I279" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J279" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10">
       <c r="A280" s="4" t="s">
         <v>33</v>
       </c>
@@ -8697,17 +8599,17 @@
       <c r="E280" s="11"/>
       <c r="F280" s="20"/>
       <c r="G280" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H280" s="20"/>
       <c r="I280" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J280" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10">
       <c r="A281" s="4" t="s">
         <v>33</v>
       </c>
@@ -8721,13 +8623,17 @@
       <c r="E281" s="11"/>
       <c r="F281" s="20"/>
       <c r="G281" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H281" s="20"/>
-      <c r="I281" s="4"/>
-      <c r="J281" s="4"/>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I281" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J281" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10">
       <c r="A282" s="4" t="s">
         <v>33</v>
       </c>
@@ -8741,13 +8647,17 @@
       <c r="E282" s="11"/>
       <c r="F282" s="20"/>
       <c r="G282" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H282" s="20"/>
-      <c r="I282" s="4"/>
-      <c r="J282" s="4"/>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I282" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J282" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10">
       <c r="A283" s="4" t="s">
         <v>33</v>
       </c>
@@ -8761,13 +8671,17 @@
       <c r="E283" s="9"/>
       <c r="F283" s="19"/>
       <c r="G283" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H283" s="19"/>
-      <c r="I283" s="4"/>
-      <c r="J283" s="4"/>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I283" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J283" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10">
       <c r="A284" s="4" t="s">
         <v>33</v>
       </c>
@@ -8781,13 +8695,17 @@
       <c r="E284" s="9"/>
       <c r="F284" s="19"/>
       <c r="G284" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H284" s="19"/>
-      <c r="I284" s="4"/>
-      <c r="J284" s="4"/>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I284" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J284" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10">
       <c r="A285" s="4" t="s">
         <v>33</v>
       </c>
@@ -8801,13 +8719,17 @@
       <c r="E285" s="9"/>
       <c r="F285" s="19"/>
       <c r="G285" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H285" s="19"/>
-      <c r="I285" s="4"/>
-      <c r="J285" s="4"/>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I285" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J285" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10">
       <c r="A286" s="4" t="s">
         <v>33</v>
       </c>
@@ -8821,13 +8743,17 @@
       <c r="E286" s="9"/>
       <c r="F286" s="19"/>
       <c r="G286" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H286" s="19"/>
-      <c r="I286" s="4"/>
-      <c r="J286" s="4"/>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I286" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J286" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10">
       <c r="A287" s="4" t="s">
         <v>33</v>
       </c>
@@ -8841,13 +8767,17 @@
       <c r="E287" s="9"/>
       <c r="F287" s="19"/>
       <c r="G287" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H287" s="19"/>
-      <c r="I287" s="4"/>
-      <c r="J287" s="4"/>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I287" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J287" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10">
       <c r="A288" s="4" t="s">
         <v>33</v>
       </c>
@@ -8861,13 +8791,17 @@
       <c r="E288" s="9"/>
       <c r="F288" s="19"/>
       <c r="G288" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H288" s="19"/>
-      <c r="I288" s="4"/>
-      <c r="J288" s="4"/>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I288" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J288" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10">
       <c r="A289" s="4" t="s">
         <v>33</v>
       </c>
@@ -8881,13 +8815,17 @@
       <c r="E289" s="9"/>
       <c r="F289" s="19"/>
       <c r="G289" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H289" s="19"/>
-      <c r="I289" s="4"/>
-      <c r="J289" s="4"/>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I289" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J289" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10">
       <c r="A290" s="4" t="s">
         <v>33</v>
       </c>
@@ -8901,13 +8839,17 @@
       <c r="E290" s="11"/>
       <c r="F290" s="20"/>
       <c r="G290" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H290" s="20"/>
-      <c r="I290" s="4"/>
-      <c r="J290" s="4"/>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I290" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J290" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10">
       <c r="A291" s="4" t="s">
         <v>33</v>
       </c>
@@ -8921,13 +8863,17 @@
       <c r="E291" s="11"/>
       <c r="F291" s="20"/>
       <c r="G291" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H291" s="20"/>
-      <c r="I291" s="4"/>
-      <c r="J291" s="4"/>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I291" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J291" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10">
       <c r="A292" s="4" t="s">
         <v>33</v>
       </c>
@@ -8941,13 +8887,17 @@
       <c r="E292" s="11"/>
       <c r="F292" s="20"/>
       <c r="G292" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H292" s="20"/>
-      <c r="I292" s="4"/>
-      <c r="J292" s="4"/>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I292" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J292" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10">
       <c r="A293" s="4" t="s">
         <v>33</v>
       </c>
@@ -8961,13 +8911,17 @@
       <c r="E293" s="9"/>
       <c r="F293" s="19"/>
       <c r="G293" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H293" s="19"/>
-      <c r="I293" s="4"/>
-      <c r="J293" s="4"/>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I293" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J293" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10">
       <c r="A294" s="4" t="s">
         <v>33</v>
       </c>
@@ -8981,13 +8935,17 @@
       <c r="E294" s="9"/>
       <c r="F294" s="19"/>
       <c r="G294" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H294" s="19"/>
-      <c r="I294" s="4"/>
-      <c r="J294" s="4"/>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I294" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J294" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10">
       <c r="A295" s="4" t="s">
         <v>33</v>
       </c>
@@ -9001,13 +8959,17 @@
       <c r="E295" s="11"/>
       <c r="F295" s="20"/>
       <c r="G295" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H295" s="20"/>
-      <c r="I295" s="4"/>
-      <c r="J295" s="4"/>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I295" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J295" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10">
       <c r="A296" s="4" t="s">
         <v>33</v>
       </c>
@@ -9021,13 +8983,17 @@
       <c r="E296" s="11"/>
       <c r="F296" s="20"/>
       <c r="G296" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H296" s="20"/>
-      <c r="I296" s="4"/>
-      <c r="J296" s="4"/>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I296" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J296" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10">
       <c r="A297" s="4" t="s">
         <v>33</v>
       </c>
@@ -9041,13 +9007,17 @@
       <c r="E297" s="11"/>
       <c r="F297" s="20"/>
       <c r="G297" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H297" s="20"/>
-      <c r="I297" s="4"/>
-      <c r="J297" s="4"/>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I297" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J297" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -9059,10 +9029,10 @@
       <c r="I298" s="1"/>
       <c r="J298" s="1"/>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:10">
       <c r="A299" s="15"/>
-      <c r="B299" s="1" t="s">
-        <v>42</v>
+      <c r="B299" t="s">
+        <v>46</v>
       </c>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
@@ -9073,10 +9043,10 @@
       <c r="I299" s="1"/>
       <c r="J299" s="1"/>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:10">
       <c r="A300" s="16"/>
       <c r="B300" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
@@ -9087,10 +9057,10 @@
       <c r="I300" s="1"/>
       <c r="J300" s="1"/>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:10">
       <c r="A301" s="17"/>
       <c r="B301" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
@@ -9103,6 +9073,7 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A3:D3"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="D9:I9"/>
@@ -9110,361 +9081,400 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <conditionalFormatting sqref="G23:G297">
-    <cfRule type="cellIs" dxfId="207" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="112" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="113" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="cellIs" dxfId="197" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="105" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="106" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="cellIs" dxfId="193" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="103" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="104" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23:J27">
-    <cfRule type="cellIs" dxfId="189" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="101" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="102" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:I27">
-    <cfRule type="cellIs" dxfId="185" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="99" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="100" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="cellIs" dxfId="177" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="97" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="98" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="cellIs" dxfId="173" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="95" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="96" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="cellIs" dxfId="169" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="93" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="94" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="cellIs" dxfId="165" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="91" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="92" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
-    <cfRule type="cellIs" dxfId="161" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="89" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="90" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="cellIs" dxfId="157" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="87" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="88" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="cellIs" dxfId="153" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="85" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="86" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="cellIs" dxfId="149" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="83" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="84" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:I37">
-    <cfRule type="cellIs" dxfId="145" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="81" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="82" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:J37">
-    <cfRule type="cellIs" dxfId="141" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="79" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="80" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="cellIs" dxfId="137" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="77" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="78" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
-    <cfRule type="cellIs" dxfId="133" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="75" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="76" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39">
-    <cfRule type="cellIs" dxfId="129" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="73" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="74" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40">
-    <cfRule type="cellIs" dxfId="125" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="71" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="72" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41">
-    <cfRule type="cellIs" dxfId="121" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="69" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="70" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42">
-    <cfRule type="cellIs" dxfId="117" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="67" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="68" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="cellIs" dxfId="113" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="65" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="66" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40">
-    <cfRule type="cellIs" dxfId="109" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="63" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="64" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41">
-    <cfRule type="cellIs" dxfId="105" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="61" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="62" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="cellIs" dxfId="101" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="59" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="60" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43">
-    <cfRule type="cellIs" dxfId="97" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="57" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="58" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44">
-    <cfRule type="cellIs" dxfId="93" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="55" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="56" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45">
-    <cfRule type="cellIs" dxfId="89" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="53" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="54" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46">
-    <cfRule type="cellIs" dxfId="85" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="51" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="52" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47">
-    <cfRule type="cellIs" dxfId="81" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="49" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="50" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43">
-    <cfRule type="cellIs" dxfId="77" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="47" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="48" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="cellIs" dxfId="73" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="45" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="46" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45">
-    <cfRule type="cellIs" dxfId="69" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="43" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="44" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J46">
-    <cfRule type="cellIs" dxfId="65" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="41" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="42" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47">
-    <cfRule type="cellIs" dxfId="61" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="39" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="40" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:J49">
-    <cfRule type="cellIs" dxfId="57" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="37" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="38" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48:I49">
-    <cfRule type="cellIs" dxfId="53" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="35" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="36" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50">
-    <cfRule type="cellIs" dxfId="49" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="33" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="34" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51">
-    <cfRule type="cellIs" dxfId="45" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="31" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="32" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="cellIs" dxfId="41" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="29" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="30" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50">
-    <cfRule type="cellIs" dxfId="37" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="27" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="28" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51">
-    <cfRule type="cellIs" dxfId="33" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="25" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="26" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J52">
-    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="23" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="24" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J223:J226">
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="21" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="22" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J227">
+    <cfRule type="cellIs" dxfId="29" priority="19" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J230">
+    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="18" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I230">
+    <cfRule type="cellIs" dxfId="25" priority="15" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="16" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I280">
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J280">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53">
     <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
@@ -9472,7 +9482,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J230">
+  <conditionalFormatting sqref="I67">
     <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
@@ -9480,7 +9490,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I230">
+  <conditionalFormatting sqref="I53:I297">
     <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
@@ -9488,7 +9498,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I280">
+  <conditionalFormatting sqref="J53:J297">
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
@@ -9496,7 +9506,7 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J280">
+  <conditionalFormatting sqref="J51">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
